--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.23</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.29</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.23</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.29</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1623,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1821,14 +1908,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.23</v>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1837,14 +1946,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.29</v>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +1984,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.31</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1537,214 +1762,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7074</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4149</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1820,22 +1837,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7161</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1858,22 +1875,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3965</t>
+          <t>0.4149</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1896,22 +1913,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1276</t>
+          <t>0.0812</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1934,22 +1951,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1962,6 +1979,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00011-恒生银行.xlsx
+++ b/数据整理/stocks/港股/00011-恒生银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.31</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +908,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2637</t>
+          <t>0.3837</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -726,17 +951,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1276</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +984,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +1022,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,6 +1050,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +1863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1638,7 +2071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1762,214 +2195,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7074</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4149</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2045,22 +2270,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7161</t>
+          <t>0.7074</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2083,22 +2308,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3965</t>
+          <t>0.4149</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2121,22 +2346,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1276</t>
+          <t>0.0812</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2159,22 +2384,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2194,81 +2419,81 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4260</t>
+          <t>0.7161</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2276,37 +2501,37 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3942</t>
+          <t>0.3965</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2314,7 +2539,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2329,22 +2554,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0683</t>
+          <t>0.1276</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2352,7 +2577,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2372,17 +2597,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2390,6 +2615,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>